--- a/doc/e签宝调用接口清单.xlsx
+++ b/doc/e签宝调用接口清单.xlsx
@@ -1,84 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fmjie\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{317B1740-8062-4124-93C2-0F955467260D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22032" windowHeight="9600" xr2:uid="{FBFBACAE-7E90-4DA4-9265-7514A9131436}"/>
+    <workbookView windowWidth="28245" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="e签宝调用清单" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>接口调用方向</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SEC合同系统-&gt;e签宝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>接口域名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>测试：smlopenapi.esign.cn
 生产：openapi.esign.cn
 文件下载地址：esignoss.esign.cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>接口名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>接口地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>请求方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>认证&amp;授权</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>查询机构认证信息</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://{host}/v3/organizations/identity-info</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
@@ -88,147 +64,110 @@
 查询优先级为 orgId &gt; orgName &gt; orgIDCardNum。
 幂律采用用名称查询，如：
 https://openapi.esign.cn/v3/organizations/identity-info?orgName=浙江苏泊尔股份有限公司</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>印章服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>查询企业内部印章</t>
   </si>
   <si>
     <t>https://{host}/v3/seals/org-own-seal-list?orgId=xx&amp;pageNum=1&amp;pageSize=20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据查询结构认证信息接口返回的OrgId去获取对应的印章列表，拿到对应的印章编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>文件模板</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>获取文件上传地址</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://{host}/v3/files/file-upload-url</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1. 先获取到e签宝服务端的上传地址fileUploadUrl和文件fileId，此时获取到的文件fileId为“未上传状态”。
 2. 通过已获取到的fileUploadUrl（文件上传地址），使用 PUT 请求方法把文件流（二进制字节流）上传到服务端，确保文件流上传完毕后，文件fileId才会变更为“文件上传已完成”或“文件已转换pdf”的状态。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>上传文件流</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>查询文件上传状态</t>
   </si>
   <si>
     <t>https://{host}/v3/files/{fileId}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1. 查看所上传文件的当前状态（转换pdf/html文件状态）文件名称和下载链接。
 2. 当返回的文件状态status值为 2 或 5 时，此文件才可以被应用到签署流程中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>签署相关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>基于文件发起签署</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://{host}/v3/sign-flow/create-by-file</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>基于已上传的合同文件来发起对应的签署流程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>下载已签署文件及附属材料</t>
   </si>
   <si>
     <t>https://{host}/v3/sign-flow/{signFlowId}/file-download-url</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>流程结束后，获取签署完成的文件以及相关附属材料的下载链接。
 未签署完成的流程，无法下载相关文件，否则会报错："流程非签署完成状态，不允许下载文档"。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>出证服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>申请出证</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://{host}/v3/evidence-report/apply</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>查询出证流程详情并下载</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://{host}/v3/evidence-report/query?recordNum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>延长签署截止时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://{host}/v3/sign-flow/{signFlowId}/delay</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>撤销签署流程</t>
   </si>
   <si>
     <t>https://{host}/v3/sign-flow/{signFlowId}/revoke</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>e签宝-&gt;SEC合同系统</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>开发：sec-dev.supor.com
 测试：sec-test.supor.com
 生产：sec.supor.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>e签宝回调通知接收</t>
   </si>
   <si>
     <t>https://{host}/api/v1/contracts/esign_callback</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>目前调用的类型仅包含：
@@ -238,42 +177,26 @@
 3 - 已撤销（发起方撤销签署任务）
 5 - 已过期（签署截止日到期后触发）
 7 - 已拒签（签署方拒绝签署））</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖章处</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -282,7 +205,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -291,7 +213,6 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -299,7 +220,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -308,14 +228,6 @@
       <sz val="9"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -323,7 +235,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -332,7 +243,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -341,11 +251,154 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,8 +417,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -388,130 +627,412 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="50"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4" xfId="2" xr:uid="{790A0698-0824-4F21-9775-1ABB7B89F688}"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="超链接 2" xfId="3" xr:uid="{2AE90471-4F35-41B2-917D-192D0E23F906}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 4" xfId="49"/>
+    <cellStyle name="超链接 2" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -560,7 +1081,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -593,26 +1114,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -645,23 +1149,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -803,374 +1290,372 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DED3C23-7B94-41C7-98E2-7B69617FF140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="0.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="83.88671875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.21875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="0.666666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.66666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.21666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.4416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="64.3333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.33333333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="83.8833333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.21666666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.3333333333333" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="3.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="3.6" customHeight="1"/>
+    <row r="2" ht="38.25" spans="2:7">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="3" ht="29.4" customHeight="1" spans="2:7">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="45.6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
+    <row r="4" ht="48" spans="2:7">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
+    <row r="5" spans="2:7">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="11" t="s">
+    </row>
+    <row r="6" ht="36" spans="2:7">
+      <c r="B6" s="13">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="14" t="s">
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" ht="24" spans="2:7">
+      <c r="B8" s="13">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="24" spans="2:7">
+      <c r="B10" s="13">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="9">
+        <v>8</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="13">
+        <v>9</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="9">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="13">
+        <v>11</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" ht="7.2" customHeight="1" spans="2:7">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" ht="38.25" spans="2:7">
+      <c r="B16" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" ht="29.4" customHeight="1" spans="2:7">
+      <c r="B17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="2:7" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+      <c r="C17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="D17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+      <c r="E17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="F17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="G17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
-        <v>10</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
-        <v>11</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="2:7" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25" t="s">
+    </row>
+    <row r="18" s="1" customFormat="1" ht="108" spans="2:7">
+      <c r="B18" s="28">
+        <v>1</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="26" t="s">
+      <c r="E18" s="30" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" s="31" customFormat="1" ht="102.6" x14ac:dyDescent="0.25">
-      <c r="B18" s="27">
-        <v>1</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29" t="s">
+      <c r="F18" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4">
       <c r="D22" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C11:C12"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{D2EA1BDB-A445-4758-B159-9794C621D018}"/>
-    <hyperlink ref="D6" r:id="rId2" location="e0adY" xr:uid="{7E708FBF-A86B-49C1-9C56-EDF75C350F03}"/>
-    <hyperlink ref="D7" r:id="rId3" location="S0BEC" xr:uid="{AD833791-C8AD-485B-970B-CC720360085B}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{9B596963-85AF-4387-B4CE-837AB6CB2D57}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{35DF6A52-E4D8-4585-8782-9388160E33FE}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{FD040ECA-6C31-42E9-AADE-1E03E2840DD3}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{9A8B6F80-89AA-4524-A5F4-C956671E9484}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{B7F5459F-01F1-43F2-91FA-86E6EDE3FA35}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{A77A1B7A-412C-4E5F-ACC8-29BD23E9D077}"/>
-    <hyperlink ref="D14" r:id="rId10" xr:uid="{F7A52576-1585-4428-89F0-BECAF7E92B04}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{8FF0F072-8B58-407F-ADF0-7BB7E25E2A68}"/>
+    <hyperlink ref="D4" r:id="rId1" display="查询机构认证信息"/>
+    <hyperlink ref="D6" r:id="rId2" display="获取文件上传地址"/>
+    <hyperlink ref="D7" r:id="rId2" display="上传文件流"/>
+    <hyperlink ref="D8" r:id="rId3" display="查询文件上传状态"/>
+    <hyperlink ref="D9" r:id="rId4" display="基于文件发起签署"/>
+    <hyperlink ref="D10" r:id="rId5" display="下载已签署文件及附属材料"/>
+    <hyperlink ref="D5" r:id="rId6" display="查询企业内部印章"/>
+    <hyperlink ref="D11" r:id="rId7" display="申请出证"/>
+    <hyperlink ref="D12" r:id="rId8" display="查询出证流程详情并下载"/>
+    <hyperlink ref="D14" r:id="rId9" display="撤销签署流程"/>
+    <hyperlink ref="D13" r:id="rId10" display="延长签署截止时间"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/e签宝调用接口清单.xlsx
+++ b/doc/e签宝调用接口清单.xlsx
@@ -179,7 +179,7 @@
 7 - 已拒签（签署方拒绝签署））</t>
   </si>
   <si>
-    <t>盖章处</t>
+    <t>甲方盖章区域</t>
   </si>
 </sst>
 </file>
@@ -187,12 +187,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,9 +256,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,7 +287,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,7 +311,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,36 +338,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,8 +368,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,49 +384,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,19 +412,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,163 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,17 +621,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,9 +665,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,188 +718,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1299,7 +1292,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
